--- a/Code/Results/Cases/Case_4_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_116/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.398560454136657</v>
+        <v>2.907024114200851</v>
       </c>
       <c r="C2">
-        <v>2.179823504797014</v>
+        <v>1.511183025706146</v>
       </c>
       <c r="D2">
-        <v>0.3016720157157664</v>
+        <v>0.5062788764427495</v>
       </c>
       <c r="E2">
-        <v>0.07262782484655261</v>
+        <v>0.152218325803819</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008116517393086513</v>
+        <v>0.002634331936744694</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.07258144829953</v>
+        <v>2.441756269691155</v>
       </c>
       <c r="J2">
-        <v>0.01601017250770198</v>
+        <v>0.04700329101950551</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.379578154543793</v>
+        <v>1.175457296432327</v>
       </c>
       <c r="N2">
-        <v>1.967137094195024</v>
+        <v>2.930400163586981</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.815293227555571</v>
+        <v>2.786335481763786</v>
       </c>
       <c r="C3">
-        <v>1.898710769335366</v>
+        <v>1.453549657153815</v>
       </c>
       <c r="D3">
-        <v>0.2782600921690062</v>
+        <v>0.5042188027763217</v>
       </c>
       <c r="E3">
-        <v>0.06881960859512049</v>
+        <v>0.1522659843660108</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008246877375630787</v>
+        <v>0.002641978109459542</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.909884317659447</v>
+        <v>2.412453084211762</v>
       </c>
       <c r="J3">
-        <v>0.01613320431907184</v>
+        <v>0.04720539459368123</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.210039735401551</v>
+        <v>1.143435964053609</v>
       </c>
       <c r="N3">
-        <v>1.948717928224852</v>
+        <v>2.927344641416909</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.467630503279509</v>
+        <v>2.714299125305786</v>
       </c>
       <c r="C4">
-        <v>1.731865718630274</v>
+        <v>1.419208695023485</v>
       </c>
       <c r="D4">
-        <v>0.2645720136843721</v>
+        <v>0.5031992914765908</v>
       </c>
       <c r="E4">
-        <v>0.06662761919055527</v>
+        <v>0.1523572754431157</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008328408806202544</v>
+        <v>0.002646912661333376</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.815080157092211</v>
+        <v>2.395631484059962</v>
       </c>
       <c r="J4">
-        <v>0.01622279156677386</v>
+        <v>0.04733921665385221</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.109382866306419</v>
+        <v>1.124556620446512</v>
       </c>
       <c r="N4">
-        <v>1.940425030581281</v>
+        <v>2.92618224882132</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.328215180028735</v>
+        <v>2.685458671348101</v>
       </c>
       <c r="C5">
-        <v>1.665120407895529</v>
+        <v>1.405474663956454</v>
       </c>
       <c r="D5">
-        <v>0.2591481187254203</v>
+        <v>0.5028453632690457</v>
       </c>
       <c r="E5">
-        <v>0.06576767224199287</v>
+        <v>0.152410051814126</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008362052941572107</v>
+        <v>0.002648984065920356</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.777578497585282</v>
+        <v>2.389068752388795</v>
       </c>
       <c r="J5">
-        <v>0.01626269489986942</v>
+        <v>0.04739620037303549</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.069113718499437</v>
+        <v>1.117058275872054</v>
       </c>
       <c r="N5">
-        <v>1.937734357100808</v>
+        <v>2.925886717108114</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.305191832760499</v>
+        <v>2.680700698943724</v>
       </c>
       <c r="C6">
-        <v>1.654107147095544</v>
+        <v>1.403209770388912</v>
       </c>
       <c r="D6">
-        <v>0.2582562896145504</v>
+        <v>0.5027903051549742</v>
       </c>
       <c r="E6">
-        <v>0.06562679648356884</v>
+        <v>0.1524197553029687</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008367666071573687</v>
+        <v>0.002649331684118403</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.771415714146499</v>
+        <v>2.387996601661342</v>
       </c>
       <c r="J6">
-        <v>0.01626952226198686</v>
+        <v>0.04740581056402249</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.062469188785791</v>
+        <v>1.115824925185869</v>
       </c>
       <c r="N6">
-        <v>1.937327287103201</v>
+        <v>2.925848366068138</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.465741607982181</v>
+        <v>2.713908094125316</v>
       </c>
       <c r="C7">
-        <v>1.730960775851088</v>
+        <v>1.419022423334525</v>
       </c>
       <c r="D7">
-        <v>0.2644982641851357</v>
+        <v>0.5031942693622256</v>
       </c>
       <c r="E7">
-        <v>0.06661589108217569</v>
+        <v>0.1523579241720583</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008328860788673708</v>
+        <v>0.002646940351837071</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.81456999785452</v>
+        <v>2.395541796461458</v>
       </c>
       <c r="J7">
-        <v>0.01622331613503825</v>
+        <v>0.0473399752312158</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.108836891502058</v>
+        <v>1.124454706943837</v>
       </c>
       <c r="N7">
-        <v>1.940386040709257</v>
+        <v>2.926177543565046</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.19503944384735</v>
+        <v>2.864978712027948</v>
       </c>
       <c r="C8">
-        <v>2.081570283870576</v>
+        <v>1.491092142976299</v>
       </c>
       <c r="D8">
-        <v>0.2934450650390943</v>
+        <v>0.5055175266139855</v>
       </c>
       <c r="E8">
-        <v>0.07128216523153696</v>
+        <v>0.1522218699154649</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008161184942378486</v>
+        <v>0.002636918718904591</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.015331153361259</v>
+        <v>2.431408228599153</v>
       </c>
       <c r="J8">
-        <v>0.01604959127453309</v>
+        <v>0.04707095905368153</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.320332988857913</v>
+        <v>1.164253154238267</v>
       </c>
       <c r="N8">
-        <v>1.960115329836853</v>
+        <v>2.929197688808785</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.727803252452986</v>
+        <v>3.177867535666564</v>
       </c>
       <c r="C9">
-        <v>2.825523074376974</v>
+        <v>1.640862032606833</v>
       </c>
       <c r="D9">
-        <v>0.3566411178294118</v>
+        <v>0.5120292843615175</v>
       </c>
       <c r="E9">
-        <v>0.08177626645705516</v>
+        <v>0.1524484762392859</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007841848518694849</v>
+        <v>0.002619157723328402</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.457257511871418</v>
+        <v>2.511135991058211</v>
       </c>
       <c r="J9">
-        <v>0.01582757972693472</v>
+        <v>0.04662046598712521</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.768475629912828</v>
+        <v>1.248574750093653</v>
       </c>
       <c r="N9">
-        <v>2.026411459581254</v>
+        <v>2.940844705335678</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.949254863519059</v>
+        <v>3.418255672772716</v>
       </c>
       <c r="C10">
-        <v>3.424495637120287</v>
+        <v>1.756254612747682</v>
       </c>
       <c r="D10">
-        <v>0.4086343903516223</v>
+        <v>0.5180196658576364</v>
       </c>
       <c r="E10">
-        <v>0.0906116525823677</v>
+        <v>0.1529177685499725</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007609098703005501</v>
+        <v>0.002607246200960773</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.824447807478307</v>
+        <v>2.575594640158258</v>
       </c>
       <c r="J10">
-        <v>0.01574901591834177</v>
+        <v>0.0463362555449276</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.128313305576015</v>
+        <v>1.314463465635285</v>
       </c>
       <c r="N10">
-        <v>2.098101669183819</v>
+        <v>2.952980064134863</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.534989084208462</v>
+        <v>3.529979003534891</v>
       </c>
       <c r="C11">
-        <v>3.713531721947959</v>
+        <v>1.809960280355199</v>
       </c>
       <c r="D11">
-        <v>0.4339646806910764</v>
+        <v>0.5210099662605217</v>
       </c>
       <c r="E11">
-        <v>0.09496296897349765</v>
+        <v>0.1531974900310971</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007502508674057015</v>
+        <v>0.002602070988242611</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.004468148777065</v>
+        <v>2.606230957416045</v>
       </c>
       <c r="J11">
-        <v>0.01573517150582049</v>
+        <v>0.04621707483944171</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.301580349315458</v>
+        <v>1.345318165031983</v>
       </c>
       <c r="N11">
-        <v>2.137470255298041</v>
+        <v>2.959297386329354</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.762113931104182</v>
+        <v>3.572632826870176</v>
       </c>
       <c r="C12">
-        <v>3.825916245160442</v>
+        <v>1.830475353494478</v>
       </c>
       <c r="D12">
-        <v>0.4438478304909097</v>
+        <v>0.5221807077741971</v>
       </c>
       <c r="E12">
-        <v>0.09666775233665348</v>
+        <v>0.153312975862967</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007461925796952381</v>
+        <v>0.00260014601106633</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.074903049805002</v>
+        <v>2.618023813429119</v>
       </c>
       <c r="J12">
-        <v>0.01573345830355777</v>
+        <v>0.04617339471005444</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.368880455659365</v>
+        <v>1.357130761132069</v>
       </c>
       <c r="N12">
-        <v>2.153538257019392</v>
+        <v>2.961805779015066</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.712943680181525</v>
+        <v>3.563431051339592</v>
       </c>
       <c r="C13">
-        <v>3.801571634148672</v>
+        <v>1.826049096954648</v>
       </c>
       <c r="D13">
-        <v>0.4417054556494691</v>
+        <v>0.5219268568205848</v>
       </c>
       <c r="E13">
-        <v>0.09629788965906272</v>
+        <v>0.1532876780796144</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007470677962046506</v>
+        <v>0.002600559046957979</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.059625578545152</v>
+        <v>2.615475449195472</v>
       </c>
       <c r="J13">
-        <v>0.01573366327428616</v>
+        <v>0.04618273751188262</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.354305404137918</v>
+        <v>1.354580958583981</v>
       </c>
       <c r="N13">
-        <v>2.150022669657886</v>
+        <v>2.961260360220876</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.553561672288424</v>
+        <v>3.533481178161651</v>
       </c>
       <c r="C14">
-        <v>3.722715274732309</v>
+        <v>1.811644482136444</v>
       </c>
       <c r="D14">
-        <v>0.4347716137614839</v>
+        <v>0.5211055132917579</v>
       </c>
       <c r="E14">
-        <v>0.09510201883848879</v>
+        <v>0.1532067992809836</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007499175061263137</v>
+        <v>0.002601911923914336</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.010214872880084</v>
+        <v>2.607197308595573</v>
       </c>
       <c r="J14">
-        <v>0.0157349573266572</v>
+        <v>0.04621345218238204</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.307081315375626</v>
+        <v>1.346287406667898</v>
       </c>
       <c r="N14">
-        <v>2.138767699289815</v>
+        <v>2.959501416205114</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.456661676053216</v>
+        <v>3.515181333834789</v>
       </c>
       <c r="C15">
-        <v>3.674813927501361</v>
+        <v>1.802844512341835</v>
       </c>
       <c r="D15">
-        <v>0.4305640145304039</v>
+        <v>0.5206074220301673</v>
       </c>
       <c r="E15">
-        <v>0.09437725182834811</v>
+        <v>0.1531585049655426</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007516597838668446</v>
+        <v>0.002602745120138423</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.980257708205272</v>
+        <v>2.602151732713452</v>
       </c>
       <c r="J15">
-        <v>0.01573622240636752</v>
+        <v>0.04623245469765536</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.278385390747928</v>
+        <v>1.341224167843691</v>
       </c>
       <c r="N15">
-        <v>2.132031085608475</v>
+        <v>2.958439186686888</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.911661273892719</v>
+        <v>3.411002471289919</v>
       </c>
       <c r="C16">
-        <v>3.405984081073598</v>
+        <v>1.752769524831933</v>
       </c>
       <c r="D16">
-        <v>0.4070167802944127</v>
+        <v>0.5178296002326874</v>
       </c>
       <c r="E16">
-        <v>0.09033471407127536</v>
+        <v>0.1529008240471548</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007616040847070265</v>
+        <v>0.002607589290748168</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.812976395529631</v>
+        <v>2.573619144431618</v>
       </c>
       <c r="J16">
-        <v>0.01575039190020355</v>
+        <v>0.04634424746740429</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.117207608842321</v>
+        <v>1.312464932735423</v>
       </c>
       <c r="N16">
-        <v>2.09567996988423</v>
+        <v>2.952583381092467</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.585669282443007</v>
+        <v>3.347703151301232</v>
       </c>
       <c r="C17">
-        <v>3.245662716108143</v>
+        <v>1.72236326637335</v>
       </c>
       <c r="D17">
-        <v>0.3930333230599246</v>
+        <v>0.5161935986881616</v>
       </c>
       <c r="E17">
-        <v>0.08794579406573533</v>
+        <v>0.1527597356818653</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007676788007530191</v>
+        <v>0.002610623204198378</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.713937186750726</v>
+        <v>2.556453662987138</v>
       </c>
       <c r="J17">
-        <v>0.01576493740055973</v>
+        <v>0.04641541580672914</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.020983275833871</v>
+        <v>1.295049149199173</v>
       </c>
       <c r="N17">
-        <v>2.075231766181219</v>
+        <v>2.949196242752606</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.400929016951693</v>
+        <v>3.311517729765967</v>
       </c>
       <c r="C18">
-        <v>3.154969621167766</v>
+        <v>1.704988351553254</v>
       </c>
       <c r="D18">
-        <v>0.3851448446424826</v>
+        <v>0.5152775653290007</v>
       </c>
       <c r="E18">
-        <v>0.0866023463279717</v>
+        <v>0.1526848177436833</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007711669565047565</v>
+        <v>0.002612391155029386</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.658166275731489</v>
+        <v>2.546704027926481</v>
       </c>
       <c r="J18">
-        <v>0.0157753372491154</v>
+        <v>0.04645730151424932</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.966516768800915</v>
+        <v>1.285114918997053</v>
       </c>
       <c r="N18">
-        <v>2.064093049227807</v>
+        <v>2.947322961613793</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.338826601923927</v>
+        <v>3.299304035388673</v>
       </c>
       <c r="C19">
-        <v>3.124508593842904</v>
+        <v>1.699124972357879</v>
       </c>
       <c r="D19">
-        <v>0.3824991191566482</v>
+        <v>0.5149716905109898</v>
       </c>
       <c r="E19">
-        <v>0.08615248163175693</v>
+        <v>0.152660521148114</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007723472971274931</v>
+        <v>0.002612993697280185</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.639477479646501</v>
+        <v>2.54342410032136</v>
       </c>
       <c r="J19">
-        <v>0.01577919748049439</v>
+        <v>0.04647164680481985</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.948217945714063</v>
+        <v>1.281765537348804</v>
       </c>
       <c r="N19">
-        <v>2.060423504650686</v>
+        <v>2.946701519527949</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.620079346762168</v>
+        <v>3.354418384043015</v>
       </c>
       <c r="C20">
-        <v>3.262568325184816</v>
+        <v>1.72558824508917</v>
       </c>
       <c r="D20">
-        <v>0.3945055757970977</v>
+        <v>0.5163651697714045</v>
       </c>
       <c r="E20">
-        <v>0.08819687120147179</v>
+        <v>0.1527741094956383</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007670328203612797</v>
+        <v>0.002610297868192499</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.724353913223013</v>
+        <v>2.558268157573906</v>
       </c>
       <c r="J20">
-        <v>0.01576317604101263</v>
+        <v>0.04640774135136816</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.031133490901567</v>
+        <v>1.296894499560693</v>
       </c>
       <c r="N20">
-        <v>2.077342846438114</v>
+        <v>2.949549045115276</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.600222617178702</v>
+        <v>3.542268727003432</v>
       </c>
       <c r="C21">
-        <v>3.745792676840608</v>
+        <v>1.815870610353727</v>
       </c>
       <c r="D21">
-        <v>0.4367998977885463</v>
+        <v>0.5213457182462378</v>
       </c>
       <c r="E21">
-        <v>0.09545164280301321</v>
+        <v>0.1532302955527882</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007490811797645469</v>
+        <v>0.002601513609606778</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.024662899939926</v>
+        <v>2.609623579335491</v>
       </c>
       <c r="J21">
-        <v>0.01573447796775973</v>
+        <v>0.04620439117819686</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.320903545767152</v>
+        <v>1.348719919233687</v>
       </c>
       <c r="N21">
-        <v>2.142040360128078</v>
+        <v>2.960014895505537</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.272448326565041</v>
+        <v>3.667063010847414</v>
       </c>
       <c r="C22">
-        <v>4.079057749297419</v>
+        <v>1.875913979997847</v>
       </c>
       <c r="D22">
-        <v>0.4661704157247755</v>
+        <v>0.5248246171092887</v>
       </c>
       <c r="E22">
-        <v>0.1005314366289234</v>
+        <v>0.1535841886819931</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007372132701988221</v>
+        <v>0.002595975107011913</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.234390154806263</v>
+        <v>2.644305066506945</v>
       </c>
       <c r="J22">
-        <v>0.01573654034515215</v>
+        <v>0.04607994663910198</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.520321223387057</v>
+        <v>1.383341234185153</v>
       </c>
       <c r="N22">
-        <v>2.191206212467534</v>
+        <v>2.967532751095916</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.91038309975346</v>
+        <v>3.600270842767372</v>
       </c>
       <c r="C23">
-        <v>3.899373926459532</v>
+        <v>1.843771499180207</v>
       </c>
       <c r="D23">
-        <v>0.4503170898331064</v>
+        <v>0.5229473027387428</v>
       </c>
       <c r="E23">
-        <v>0.09778564802172696</v>
+        <v>0.1533901957188988</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000743564397692292</v>
+        <v>0.002598912657914434</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.121066930838012</v>
+        <v>2.625691744631496</v>
       </c>
       <c r="J23">
-        <v>0.01573338430437587</v>
+        <v>0.04614559205680813</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.412847778068283</v>
+        <v>1.364793910378594</v>
       </c>
       <c r="N23">
-        <v>2.164261598548364</v>
+        <v>2.963457783865067</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.60451429075033</v>
+        <v>3.351381785493629</v>
       </c>
       <c r="C24">
-        <v>3.254920736227859</v>
+        <v>1.724129902156335</v>
       </c>
       <c r="D24">
-        <v>0.3938395042404466</v>
+        <v>0.5162875261105171</v>
       </c>
       <c r="E24">
-        <v>0.08808326653810639</v>
+        <v>0.1527675917991047</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007673248805780584</v>
+        <v>0.00261044487877794</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.719640901799707</v>
+        <v>2.557447454021144</v>
       </c>
       <c r="J24">
-        <v>0.01576396603299202</v>
+        <v>0.04641120795067621</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.026541940703879</v>
+        <v>1.296059972800791</v>
       </c>
       <c r="N24">
-        <v>2.076386518167112</v>
+        <v>2.949389312699196</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.299127614977749</v>
+        <v>3.091404236406788</v>
       </c>
       <c r="C25">
-        <v>2.616560859494541</v>
+        <v>1.599420114856059</v>
       </c>
       <c r="D25">
-        <v>0.338704204186925</v>
+        <v>0.5100568904771734</v>
       </c>
       <c r="E25">
-        <v>0.0787651168428205</v>
+        <v>0.1523341484323133</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007927586277626484</v>
+        <v>0.002623761665397017</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.331327197984621</v>
+        <v>2.488545923991595</v>
       </c>
       <c r="J25">
-        <v>0.01587381207501259</v>
+        <v>0.04673410925480415</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.642718508567242</v>
+        <v>1.225080218035771</v>
       </c>
       <c r="N25">
-        <v>2.004951948977919</v>
+        <v>2.937071977213023</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_116/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.907024114200851</v>
+        <v>4.398560454136771</v>
       </c>
       <c r="C2">
-        <v>1.511183025706146</v>
+        <v>2.179823504797298</v>
       </c>
       <c r="D2">
-        <v>0.5062788764427495</v>
+        <v>0.301672015715738</v>
       </c>
       <c r="E2">
-        <v>0.152218325803819</v>
+        <v>0.0726278248465988</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002634331936744694</v>
+        <v>0.0008116517392336283</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.441756269691155</v>
+        <v>2.072581448299545</v>
       </c>
       <c r="J2">
-        <v>0.04700329101950551</v>
+        <v>0.01601017250775882</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.175457296432327</v>
+        <v>1.379578154543807</v>
       </c>
       <c r="N2">
-        <v>2.930400163586981</v>
+        <v>1.967137094195053</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.786335481763786</v>
+        <v>3.815293227555571</v>
       </c>
       <c r="C3">
-        <v>1.453549657153815</v>
+        <v>1.898710769335366</v>
       </c>
       <c r="D3">
-        <v>0.5042188027763217</v>
+        <v>0.2782600921693898</v>
       </c>
       <c r="E3">
-        <v>0.1522659843660108</v>
+        <v>0.06881960859515246</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002641978109459542</v>
+        <v>0.0008246877375647385</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.412453084211762</v>
+        <v>1.909884317659461</v>
       </c>
       <c r="J3">
-        <v>0.04720539459368123</v>
+        <v>0.01613320431930276</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.143435964053609</v>
+        <v>1.210039735401551</v>
       </c>
       <c r="N3">
-        <v>2.927344641416909</v>
+        <v>1.948717928224866</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.714299125305786</v>
+        <v>3.467630503279452</v>
       </c>
       <c r="C4">
-        <v>1.419208695023485</v>
+        <v>1.73186571862999</v>
       </c>
       <c r="D4">
-        <v>0.5031992914765908</v>
+        <v>0.26457201368396</v>
       </c>
       <c r="E4">
-        <v>0.1523572754431157</v>
+        <v>0.0666276191905375</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002646912661333376</v>
+        <v>0.000832840880613894</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.395631484059962</v>
+        <v>1.815080157092211</v>
       </c>
       <c r="J4">
-        <v>0.04733921665385221</v>
+        <v>0.01622279156694262</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.124556620446512</v>
+        <v>1.109382866306433</v>
       </c>
       <c r="N4">
-        <v>2.92618224882132</v>
+        <v>1.940425030581366</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.685458671348101</v>
+        <v>3.328215180028792</v>
       </c>
       <c r="C5">
-        <v>1.405474663956454</v>
+        <v>1.665120407895472</v>
       </c>
       <c r="D5">
-        <v>0.5028453632690457</v>
+        <v>0.2591481187253919</v>
       </c>
       <c r="E5">
-        <v>0.152410051814126</v>
+        <v>0.06576767224195024</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002648984065920356</v>
+        <v>0.0008362052942226244</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.389068752388795</v>
+        <v>1.777578497585282</v>
       </c>
       <c r="J5">
-        <v>0.04739620037303549</v>
+        <v>0.0162626948998339</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.117058275872054</v>
+        <v>1.069113718499423</v>
       </c>
       <c r="N5">
-        <v>2.925886717108114</v>
+        <v>1.937734357100823</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.680700698943724</v>
+        <v>3.305191832760443</v>
       </c>
       <c r="C6">
-        <v>1.403209770388912</v>
+        <v>1.654107147096113</v>
       </c>
       <c r="D6">
-        <v>0.5027903051549742</v>
+        <v>0.2582562896143372</v>
       </c>
       <c r="E6">
-        <v>0.1524197553029687</v>
+        <v>0.06562679648353509</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002649331684118403</v>
+        <v>0.0008367666070905689</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.387996601661342</v>
+        <v>1.771415714146528</v>
       </c>
       <c r="J6">
-        <v>0.04740581056402249</v>
+        <v>0.01626952226185452</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.115824925185869</v>
+        <v>1.062469188785805</v>
       </c>
       <c r="N6">
-        <v>2.925848366068138</v>
+        <v>1.937327287103216</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.713908094125316</v>
+        <v>3.465741607982295</v>
       </c>
       <c r="C7">
-        <v>1.419022423334525</v>
+        <v>1.730960775851429</v>
       </c>
       <c r="D7">
-        <v>0.5031942693622256</v>
+        <v>0.2644982641851072</v>
       </c>
       <c r="E7">
-        <v>0.1523579241720583</v>
+        <v>0.06661589108216859</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002646940351837071</v>
+        <v>0.0008328860789822319</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.395541796461458</v>
+        <v>1.81456999785452</v>
       </c>
       <c r="J7">
-        <v>0.0473399752312158</v>
+        <v>0.0162233161350791</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.124454706943837</v>
+        <v>1.108836891502058</v>
       </c>
       <c r="N7">
-        <v>2.926177543565046</v>
+        <v>1.940386040709228</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.864978712027948</v>
+        <v>4.195039443847236</v>
       </c>
       <c r="C8">
-        <v>1.491092142976299</v>
+        <v>2.081570283870292</v>
       </c>
       <c r="D8">
-        <v>0.5055175266139855</v>
+        <v>0.2934450650393927</v>
       </c>
       <c r="E8">
-        <v>0.1522218699154649</v>
+        <v>0.07128216523153696</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002636918718904591</v>
+        <v>0.0008161184941625755</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.431408228599153</v>
+        <v>2.015331153361274</v>
       </c>
       <c r="J8">
-        <v>0.04707095905368153</v>
+        <v>0.0160495912744727</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.164253154238267</v>
+        <v>1.320332988857913</v>
       </c>
       <c r="N8">
-        <v>2.929197688808785</v>
+        <v>1.960115329836839</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.177867535666564</v>
+        <v>5.727803252453157</v>
       </c>
       <c r="C9">
-        <v>1.640862032606833</v>
+        <v>2.825523074376747</v>
       </c>
       <c r="D9">
-        <v>0.5120292843615175</v>
+        <v>0.356641117829426</v>
       </c>
       <c r="E9">
-        <v>0.1524484762392859</v>
+        <v>0.08177626645692726</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002619157723328402</v>
+        <v>0.0007841848516727929</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.511135991058211</v>
+        <v>2.457257511871404</v>
       </c>
       <c r="J9">
-        <v>0.04662046598712521</v>
+        <v>0.01582757972713633</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.248574750093653</v>
+        <v>1.768475629912857</v>
       </c>
       <c r="N9">
-        <v>2.940844705335678</v>
+        <v>2.026411459581254</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.418255672772716</v>
+        <v>6.949254863519059</v>
       </c>
       <c r="C10">
-        <v>1.756254612747682</v>
+        <v>3.424495637120401</v>
       </c>
       <c r="D10">
-        <v>0.5180196658576364</v>
+        <v>0.4086343903516081</v>
       </c>
       <c r="E10">
-        <v>0.1529177685499725</v>
+        <v>0.09061165258238191</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002607246200960773</v>
+        <v>0.0007609098701154534</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.575594640158258</v>
+        <v>2.824447807478322</v>
       </c>
       <c r="J10">
-        <v>0.0463362555449276</v>
+        <v>0.01574901591828848</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.314463465635285</v>
+        <v>2.128313305576015</v>
       </c>
       <c r="N10">
-        <v>2.952980064134863</v>
+        <v>2.098101669183848</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.529979003534891</v>
+        <v>7.534989084208291</v>
       </c>
       <c r="C11">
-        <v>1.809960280355199</v>
+        <v>3.713531721947959</v>
       </c>
       <c r="D11">
-        <v>0.5210099662605217</v>
+        <v>0.4339646806911048</v>
       </c>
       <c r="E11">
-        <v>0.1531974900310971</v>
+        <v>0.09496296897349765</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002602070988242611</v>
+        <v>0.0007502508673037377</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.606230957416045</v>
+        <v>3.004468148777036</v>
       </c>
       <c r="J11">
-        <v>0.04621707483944171</v>
+        <v>0.01573517150572989</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.345318165031983</v>
+        <v>2.301580349315415</v>
       </c>
       <c r="N11">
-        <v>2.959297386329354</v>
+        <v>2.137470255298041</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.572632826870176</v>
+        <v>7.762113931104352</v>
       </c>
       <c r="C12">
-        <v>1.830475353494478</v>
+        <v>3.825916245160442</v>
       </c>
       <c r="D12">
-        <v>0.5221807077741971</v>
+        <v>0.4438478304908813</v>
       </c>
       <c r="E12">
-        <v>0.153312975862967</v>
+        <v>0.0966677523367423</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00260014601106633</v>
+        <v>0.0007461925795977375</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.618023813429119</v>
+        <v>3.074903049805002</v>
       </c>
       <c r="J12">
-        <v>0.04617339471005444</v>
+        <v>0.01573345830340855</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.357130761132069</v>
+        <v>2.368880455659379</v>
       </c>
       <c r="N12">
-        <v>2.961805779015066</v>
+        <v>2.153538257019449</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.563431051339592</v>
+        <v>7.712943680181695</v>
       </c>
       <c r="C13">
-        <v>1.826049096954648</v>
+        <v>3.801571634148786</v>
       </c>
       <c r="D13">
-        <v>0.5219268568205848</v>
+        <v>0.4417054556489859</v>
       </c>
       <c r="E13">
-        <v>0.1532876780796144</v>
+        <v>0.0962978896591018</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002600559046957979</v>
+        <v>0.0007470677963916605</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.615475449195472</v>
+        <v>3.059625578545152</v>
       </c>
       <c r="J13">
-        <v>0.04618273751188262</v>
+        <v>0.01573366327427728</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.354580958583981</v>
+        <v>2.354305404137932</v>
       </c>
       <c r="N13">
-        <v>2.961260360220876</v>
+        <v>2.150022669657886</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.533481178161651</v>
+        <v>7.553561672288595</v>
       </c>
       <c r="C14">
-        <v>1.811644482136444</v>
+        <v>3.722715274732536</v>
       </c>
       <c r="D14">
-        <v>0.5211055132917579</v>
+        <v>0.4347716137612565</v>
       </c>
       <c r="E14">
-        <v>0.1532067992809836</v>
+        <v>0.09510201883845326</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002601911923914336</v>
+        <v>0.0007499175060310219</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.607197308595573</v>
+        <v>3.010214872880084</v>
       </c>
       <c r="J14">
-        <v>0.04621345218238204</v>
+        <v>0.01573495732652752</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.346287406667898</v>
+        <v>2.307081315375598</v>
       </c>
       <c r="N14">
-        <v>2.959501416205114</v>
+        <v>2.138767699289815</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.515181333834789</v>
+        <v>7.456661676053216</v>
       </c>
       <c r="C15">
-        <v>1.802844512341835</v>
+        <v>3.674813927501361</v>
       </c>
       <c r="D15">
-        <v>0.5206074220301673</v>
+        <v>0.4305640145301766</v>
       </c>
       <c r="E15">
-        <v>0.1531585049655426</v>
+        <v>0.09437725182838363</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002602745120138423</v>
+        <v>0.0007516597838718466</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.602151732713452</v>
+        <v>2.980257708205272</v>
       </c>
       <c r="J15">
-        <v>0.04623245469765536</v>
+        <v>0.01573622240632133</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.341224167843691</v>
+        <v>2.2783853907479</v>
       </c>
       <c r="N15">
-        <v>2.958439186686888</v>
+        <v>2.132031085608446</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.411002471289919</v>
+        <v>6.911661273892832</v>
       </c>
       <c r="C16">
-        <v>1.752769524831933</v>
+        <v>3.405984081073655</v>
       </c>
       <c r="D16">
-        <v>0.5178296002326874</v>
+        <v>0.4070167802939579</v>
       </c>
       <c r="E16">
-        <v>0.1529008240471548</v>
+        <v>0.09033471407134996</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002607589290748168</v>
+        <v>0.0007616040847056485</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.573619144431618</v>
+        <v>2.812976395529631</v>
       </c>
       <c r="J16">
-        <v>0.04634424746740429</v>
+        <v>0.01575039190029592</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.312464932735423</v>
+        <v>2.117207608842307</v>
       </c>
       <c r="N16">
-        <v>2.952583381092467</v>
+        <v>2.095679969884287</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.347703151301232</v>
+        <v>6.585669282442836</v>
       </c>
       <c r="C17">
-        <v>1.72236326637335</v>
+        <v>3.245662716107859</v>
       </c>
       <c r="D17">
-        <v>0.5161935986881616</v>
+        <v>0.3930333230597824</v>
       </c>
       <c r="E17">
-        <v>0.1527597356818653</v>
+        <v>0.08794579406574599</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002610623204198378</v>
+        <v>0.0007676788007565718</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.556453662987138</v>
+        <v>2.713937186750726</v>
       </c>
       <c r="J17">
-        <v>0.04641541580672914</v>
+        <v>0.01576493740051887</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.295049149199173</v>
+        <v>2.020983275833871</v>
       </c>
       <c r="N17">
-        <v>2.949196242752606</v>
+        <v>2.075231766181275</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.311517729765967</v>
+        <v>6.400929016952034</v>
       </c>
       <c r="C18">
-        <v>1.704988351553254</v>
+        <v>3.154969621167993</v>
       </c>
       <c r="D18">
-        <v>0.5152775653290007</v>
+        <v>0.3851448446426531</v>
       </c>
       <c r="E18">
-        <v>0.1526848177436833</v>
+        <v>0.0866023463279646</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002612391155029386</v>
+        <v>0.0007711669565896136</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.546704027926481</v>
+        <v>2.658166275731503</v>
       </c>
       <c r="J18">
-        <v>0.04645730151424932</v>
+        <v>0.01577533724897862</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.285114918997053</v>
+        <v>1.966516768800915</v>
       </c>
       <c r="N18">
-        <v>2.947322961613793</v>
+        <v>2.064093049227836</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.299304035388673</v>
+        <v>6.33882660192404</v>
       </c>
       <c r="C19">
-        <v>1.699124972357879</v>
+        <v>3.124508593842563</v>
       </c>
       <c r="D19">
-        <v>0.5149716905109898</v>
+        <v>0.3824991191567761</v>
       </c>
       <c r="E19">
-        <v>0.152660521148114</v>
+        <v>0.08615248163162192</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002612993697280185</v>
+        <v>0.0007723472969795146</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.54342410032136</v>
+        <v>2.639477479646516</v>
       </c>
       <c r="J19">
-        <v>0.04647164680481985</v>
+        <v>0.01577919748067025</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.281765537348804</v>
+        <v>1.948217945714035</v>
       </c>
       <c r="N19">
-        <v>2.946701519527949</v>
+        <v>2.060423504650686</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.354418384043015</v>
+        <v>6.620079346762111</v>
       </c>
       <c r="C20">
-        <v>1.72558824508917</v>
+        <v>3.262568325184418</v>
       </c>
       <c r="D20">
-        <v>0.5163651697714045</v>
+        <v>0.3945055757970692</v>
       </c>
       <c r="E20">
-        <v>0.1527741094956383</v>
+        <v>0.08819687120148245</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002610297868192499</v>
+        <v>0.0007670328205026083</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.558268157573906</v>
+        <v>2.724353913223013</v>
       </c>
       <c r="J20">
-        <v>0.04640774135136816</v>
+        <v>0.0157631760410748</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.296894499560693</v>
+        <v>2.031133490901553</v>
       </c>
       <c r="N20">
-        <v>2.949549045115276</v>
+        <v>2.077342846438114</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.542268727003432</v>
+        <v>7.600222617178645</v>
       </c>
       <c r="C21">
-        <v>1.815870610353727</v>
+        <v>3.745792676841006</v>
       </c>
       <c r="D21">
-        <v>0.5213457182462378</v>
+        <v>0.4367998977880916</v>
       </c>
       <c r="E21">
-        <v>0.1532302955527882</v>
+        <v>0.09545164280301321</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002601513609606778</v>
+        <v>0.0007490811797637179</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.609623579335491</v>
+        <v>3.024662899939926</v>
       </c>
       <c r="J21">
-        <v>0.04620439117819686</v>
+        <v>0.0157344779677544</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.348719919233687</v>
+        <v>2.320903545767123</v>
       </c>
       <c r="N21">
-        <v>2.960014895505537</v>
+        <v>2.142040360128078</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.667063010847414</v>
+        <v>8.272448326565154</v>
       </c>
       <c r="C22">
-        <v>1.875913979997847</v>
+        <v>4.079057749296908</v>
       </c>
       <c r="D22">
-        <v>0.5248246171092887</v>
+        <v>0.4661704157247186</v>
       </c>
       <c r="E22">
-        <v>0.1535841886819931</v>
+        <v>0.1005314366288559</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002595975107011913</v>
+        <v>0.0007372132701485922</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.644305066506945</v>
+        <v>3.234390154806292</v>
       </c>
       <c r="J22">
-        <v>0.04607994663910198</v>
+        <v>0.01573654034523919</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.383341234185153</v>
+        <v>2.520321223387072</v>
       </c>
       <c r="N22">
-        <v>2.967532751095916</v>
+        <v>2.191206212467534</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.600270842767372</v>
+        <v>7.910383099753574</v>
       </c>
       <c r="C23">
-        <v>1.843771499180207</v>
+        <v>3.899373926459816</v>
       </c>
       <c r="D23">
-        <v>0.5229473027387428</v>
+        <v>0.4503170898333053</v>
       </c>
       <c r="E23">
-        <v>0.1533901957188988</v>
+        <v>0.09778564802170919</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002598912657914434</v>
+        <v>0.0007435643976140187</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.625691744631496</v>
+        <v>3.12106693083804</v>
       </c>
       <c r="J23">
-        <v>0.04614559205680813</v>
+        <v>0.01573338430419291</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.364793910378594</v>
+        <v>2.412847778068254</v>
       </c>
       <c r="N23">
-        <v>2.963457783865067</v>
+        <v>2.164261598548364</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.351381785493629</v>
+        <v>6.604514290750501</v>
       </c>
       <c r="C24">
-        <v>1.724129902156335</v>
+        <v>3.254920736228371</v>
       </c>
       <c r="D24">
-        <v>0.5162875261105171</v>
+        <v>0.3938395042401623</v>
       </c>
       <c r="E24">
-        <v>0.1527675917991047</v>
+        <v>0.08808326653810283</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00261044487877794</v>
+        <v>0.0007673248805760496</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.557447454021144</v>
+        <v>2.719640901799693</v>
       </c>
       <c r="J24">
-        <v>0.04641120795067621</v>
+        <v>0.01576396603296359</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.296059972800791</v>
+        <v>2.026541940703865</v>
       </c>
       <c r="N24">
-        <v>2.949389312699196</v>
+        <v>2.076386518167169</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.091404236406788</v>
+        <v>5.29912761497792</v>
       </c>
       <c r="C25">
-        <v>1.599420114856059</v>
+        <v>2.616560859494768</v>
       </c>
       <c r="D25">
-        <v>0.5100568904771734</v>
+        <v>0.3387042041870387</v>
       </c>
       <c r="E25">
-        <v>0.1523341484323133</v>
+        <v>0.07876511684279563</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002623761665397017</v>
+        <v>0.0007927586276820461</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.488545923991595</v>
+        <v>2.331327197984606</v>
       </c>
       <c r="J25">
-        <v>0.04673410925480415</v>
+        <v>0.01587381207491312</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.225080218035771</v>
+        <v>1.642718508567242</v>
       </c>
       <c r="N25">
-        <v>2.937071977213023</v>
+        <v>2.004951948977947</v>
       </c>
       <c r="O25">
         <v>0</v>
